--- a/DATA_goal/Junction_Flooding_302.xlsx
+++ b/DATA_goal/Junction_Flooding_302.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44983.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.99</v>
+        <v>89.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.33</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44983.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.95</v>
+        <v>39.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.2</v>
+        <v>31.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.12</v>
+        <v>51.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.01</v>
+        <v>210.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.99</v>
+        <v>39.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.67</v>
+        <v>46.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44983.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.17</v>
+        <v>41.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.85</v>
+        <v>58.45</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.33</v>
+        <v>53.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44983.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.39</v>
+        <v>33.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.29</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.11</v>
+        <v>31.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_302.xlsx
+++ b/DATA_goal/Junction_Flooding_302.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44983.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.95</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.83</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.85</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.5</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.65</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.97</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>89.87</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.48</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.77</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.31</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.45</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.13</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.81</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.33</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.06</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.29</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44983.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.02</v>
+        <v>18.017</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>13.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.407</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.47</v>
+        <v>39.468</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>31.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.17</v>
+        <v>51.167</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>21.89</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.23</v>
+        <v>10.226</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>13.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.89</v>
+        <v>15.893</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.03</v>
+        <v>17.029</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>4.97</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.9</v>
+        <v>19.897</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.29</v>
+        <v>12.292</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.883</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.13</v>
+        <v>210.127</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>39.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.45</v>
+        <v>26.449</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.229</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.83</v>
+        <v>26.829</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.58</v>
+        <v>11.579</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.46</v>
+        <v>10.456</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.46</v>
+        <v>12.461</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.87</v>
+        <v>16.872</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.73</v>
+        <v>46.729</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.39</v>
+        <v>7.388</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.42</v>
+        <v>16.415</v>
       </c>
     </row>
     <row r="4">
@@ -863,10 +863,10 @@
         <v>44983.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.04</v>
+        <v>19.041</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.27</v>
+        <v>14.269</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.19</v>
@@ -875,85 +875,85 @@
         <v>41.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.95</v>
+        <v>33.949</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.55</v>
+        <v>14.549</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.45</v>
+        <v>58.451</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.11</v>
+        <v>23.106</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.72</v>
+        <v>10.719</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.95</v>
+        <v>14.947</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.76</v>
+        <v>16.756</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.89</v>
+        <v>17.885</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.08</v>
+        <v>5.078</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.15</v>
+        <v>21.147</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.801</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.59</v>
+        <v>221.587</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.07</v>
+        <v>42.067</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.1</v>
+        <v>28.104</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.99</v>
+        <v>14.989</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.98</v>
+        <v>1.982</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.28</v>
+        <v>29.284</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.2</v>
+        <v>12.198</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.93</v>
+        <v>10.929</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.94</v>
+        <v>12.943</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.7</v>
+        <v>17.699</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.32</v>
+        <v>53.323</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>7.85</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.050000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44983.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_302.xlsx
+++ b/DATA_goal/Junction_Flooding_302.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,73 +970,73 @@
         <v>9.949999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.45</v>
+        <v>7.446</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.88</v>
+        <v>21.881</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.68</v>
+        <v>17.675</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.5</v>
+        <v>7.498</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.91</v>
+        <v>33.906</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.09</v>
+        <v>12.086</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.73</v>
+        <v>5.728</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.67</v>
+        <v>7.665</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.43</v>
+        <v>9.432</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.72</v>
+        <v>2.722</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.81</v>
+        <v>6.814</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.86</v>
+        <v>112.863</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.2</v>
+        <v>22.195</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.74</v>
+        <v>14.738</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.9</v>
+        <v>7.898</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>16.65</v>
@@ -1045,25 +1045,129 @@
         <v>6.38</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.78</v>
+        <v>5.785</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.85</v>
+        <v>6.855</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.297000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.09</v>
+        <v>31.085</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.12</v>
+        <v>4.122</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.053000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44983.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_302.xlsx
+++ b/DATA_goal/Junction_Flooding_302.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,73 +970,73 @@
         <v>9.949999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.446</v>
+        <v>7.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.881</v>
+        <v>21.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.675</v>
+        <v>17.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.498</v>
+        <v>7.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.906</v>
+        <v>33.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.086</v>
+        <v>12.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.728</v>
+        <v>5.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.665</v>
+        <v>7.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.797000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.432</v>
+        <v>9.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.722</v>
+        <v>2.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.895</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.035</v>
+        <v>11.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.814</v>
+        <v>6.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.863</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.195</v>
+        <v>22.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.288</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.738</v>
+        <v>14.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.898</v>
+        <v>7.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.041</v>
+        <v>1.04</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>16.65</v>
@@ -1045,129 +1045,25 @@
         <v>6.38</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.785</v>
+        <v>5.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.855</v>
+        <v>6.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.297000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.085</v>
+        <v>31.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.122</v>
+        <v>4.12</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.053000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44983.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.29</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
   </sheetData>
